--- a/target/classes/caseconf/JobPut/Case_JobPut.xlsx
+++ b/target/classes/caseconf/JobPut/Case_JobPut.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -205,15 +205,6 @@
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -277,14 +268,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-  </si>
-  <si>
     <t>JobPut-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -359,15 +342,6 @@
   </si>
   <si>
     <t>JobPut-027</t>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -951,38 +925,28 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
+    <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d49(user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) 24c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
 delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
 delete from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1589,9 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1671,10 +1635,10 @@
         <v>17</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="372.5" customHeight="1">
@@ -1682,82 +1646,82 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="19" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="144" customHeight="1">
+    </row>
+    <row r="3" spans="1:19" ht="305.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="19" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="110.5" customHeight="1">
@@ -1765,27 +1729,27 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="40"/>
@@ -1795,27 +1759,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N5" s="34"/>
       <c r="O5" s="41"/>
@@ -1827,27 +1791,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="41"/>
@@ -1857,68 +1821,68 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="138" customHeight="1">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="281.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="19" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -1926,38 +1890,38 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="H9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" ht="127.5" customHeight="1">
@@ -1965,38 +1929,38 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L10" s="46"/>
       <c r="M10" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" ht="289" customHeight="1">
@@ -2004,38 +1968,38 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2043,38 +2007,38 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2082,38 +2046,38 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2121,38 +2085,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L14" s="46"/>
       <c r="M14" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2160,38 +2124,38 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2199,38 +2163,38 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="97.5" customHeight="1">
@@ -2238,38 +2202,38 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N17" s="49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="409.5">
@@ -2277,38 +2241,38 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J18" s="46"/>
       <c r="K18" s="47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L18" s="46"/>
       <c r="M18" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
@@ -2316,38 +2280,38 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J19" s="46"/>
       <c r="K19" s="47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="409.5">
@@ -2355,38 +2319,38 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L20" s="46"/>
       <c r="M20" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O20" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="409.5">
@@ -2394,38 +2358,38 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L21" s="46"/>
       <c r="M21" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="409.5">
@@ -2433,38 +2397,38 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="409.5">
@@ -2472,38 +2436,38 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L23" s="46"/>
       <c r="M23" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="409.5">
@@ -2511,38 +2475,38 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="409.5">
@@ -2550,38 +2514,38 @@
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N25" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="167" customHeight="1">
@@ -2589,37 +2553,37 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O26" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.5">
